--- a/biology/Médecine/Michel_Lechat/Michel_Lechat.xlsx
+++ b/biology/Médecine/Michel_Lechat/Michel_Lechat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel F. baron Lechat, né en 1927 à Ixelles et mort à La Hulpe le 28 février 2014[1] est un professeur et léprologue belge réputé dans le monde entier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel F. baron Lechat, né en 1927 à Ixelles et mort à La Hulpe le 28 février 2014 est un professeur et léprologue belge réputé dans le monde entier.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est docteur en médecine. 
 En 1951, il visite les léproseries du Congo belge, où il retourne en 1953 avec un diplôme de médecine tropicale. Il sera directeur médical de la léproserie de Iyonda (forêt équatoriale). Graham Greene lui consacre le livre A Burnt-Out Case en 1961.
@@ -519,7 +533,7 @@
 En 1967, Lechat rejoint l’École de santé publique de l'UCL sur le site de Louvain-en-Woluwe et la dirigera dès 1983, y enseignant l'épidémiologie. En 1974, il fonde le Centre de recherche sur l'épidémiologie des catastrophes naturelles, centre collaborateur de l'OMS.
 Il a été président de l’Association internationale contre la lèpre et consultant de l'OMS, la Banque mondiale, les Nations unies, les Communautés européennes, exécutant de nombreuses missions de par le monde. 
 Il accède à l'éméritat en 1992.
-Michel Lechat s'est exprimé longuement sur sa carrière dans une interview récente[2],[3].
+Michel Lechat s'est exprimé longuement sur sa carrière dans une interview récente,.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus de deux tiers de ses 330 publications sont consacrés à la lèpre. 
 </t>
@@ -579,7 +595,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1990 : International Gandhi Award de la Gandhi Memorial Leprosy Foundation
 2002 : Damien-Dutton Award
